--- a/VS-RegressionSTG/testdata.xlsx
+++ b/VS-RegressionSTG/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF1B31-3F8F-452E-97A4-5F1982186C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF13C42-1FA6-4351-8BF6-5414DCDDB2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="221">
   <si>
     <t>homepageURL</t>
   </si>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <t>https://author.hq-stg.pwc.com/editor.html/content/valuestore/us/en/firmwide/qa-or-uat/erinc-content-automation-pages/system.html</t>
+  </si>
+  <si>
+    <t>https://author.hq-stg.pwc.com/editor.html/content/valuestore/us/en/firmwide/qa-or-uat/external-pages/automation-external-page.html</t>
+  </si>
+  <si>
+    <t>externalAuthor</t>
   </si>
 </sst>
 </file>
@@ -1724,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,8 +2059,16 @@
       <c r="A50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2071,6 +2085,7 @@
     <hyperlink ref="B39" r:id="rId10" xr:uid="{A4C7D0DE-485A-4615-84C8-FE452435D282}"/>
     <hyperlink ref="B41" r:id="rId11" xr:uid="{6C689B31-D28F-4FFD-B148-783A84EDEA9B}"/>
     <hyperlink ref="B43" r:id="rId12" xr:uid="{8EB5C99D-2066-4A72-8D27-A91543FFC3A8}"/>
+    <hyperlink ref="B50" r:id="rId13" xr:uid="{FB1A2185-567D-4D8A-8628-C9B8DB8F1BA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
